--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28000" windowHeight="15780"/>
   </bookViews>
   <sheets>
-    <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,8 +49,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -83,7 +83,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,130 +181,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +241,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,169 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,62 +448,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -526,154 +479,201 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1046,7 +1046,7 @@
   <dimension ref="C3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15780"/>
+    <workbookView windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>内网地址</t>
   </si>
   <si>
     <t>外网地址</t>
-  </si>
-  <si>
-    <t>_id</t>
   </si>
   <si>
     <t>InnerIP</t>
@@ -48,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -89,18 +86,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,10 +101,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,10 +131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,6 +147,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -165,19 +171,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,29 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,181 +244,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +445,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +454,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,142 +532,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,24 +1067,24 @@
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:5">
@@ -1095,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
